--- a/dist/document/dest/2020/10/chi lam/119_phbt.xlsx
+++ b/dist/document/dest/2020/10/chi lam/119_phbt.xlsx
@@ -11,18 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Công ty TNHH DP Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: chi lam</t>
-  </si>
-  <si>
-    <t>PHÍ THÁNG (01/09 -&gt; 30/09/2020)</t>
-  </si>
-  <si>
-    <t>Bác Sĩ: Phạm Huỳnh Bảo Trân</t>
+    <t>TDV: chi lam</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>Kính gửi khách hàng: 119</t>
   </si>
   <si>
     <t>STT</t>
@@ -46,49 +46,46 @@
     <t>CK</t>
   </si>
   <si>
-    <t>BS One</t>
-  </si>
-  <si>
-    <t>Uvomo</t>
-  </si>
-  <si>
-    <t>Cardorite</t>
-  </si>
-  <si>
-    <t>Picencal</t>
-  </si>
-  <si>
-    <t>Zantagel</t>
-  </si>
-  <si>
-    <t>Cefass</t>
-  </si>
-  <si>
-    <t>Bonzacim</t>
-  </si>
-  <si>
-    <t>Fagendol</t>
-  </si>
-  <si>
-    <t>Loxcip</t>
-  </si>
-  <si>
-    <t>Optipan</t>
-  </si>
-  <si>
-    <t>Maxezole 40</t>
-  </si>
-  <si>
-    <t>Chondrasil</t>
-  </si>
-  <si>
-    <t>Talroma</t>
-  </si>
-  <si>
-    <t>Sanaperol</t>
-  </si>
-  <si>
-    <t>Mexams</t>
+    <t>BS O**</t>
+  </si>
+  <si>
+    <t>Uvom*</t>
+  </si>
+  <si>
+    <t>Card*****</t>
+  </si>
+  <si>
+    <t>Pice****</t>
+  </si>
+  <si>
+    <t>Zant****</t>
+  </si>
+  <si>
+    <t>Cefa**</t>
+  </si>
+  <si>
+    <t>Fage****</t>
+  </si>
+  <si>
+    <t>Loxc**</t>
+  </si>
+  <si>
+    <t>Opti***</t>
+  </si>
+  <si>
+    <t>Maxe*******</t>
+  </si>
+  <si>
+    <t>Chon******</t>
+  </si>
+  <si>
+    <t>Talr***</t>
+  </si>
+  <si>
+    <t>Sana*****</t>
+  </si>
+  <si>
+    <t>Mexa**</t>
   </si>
   <si>
     <t>Tổng cộng</t>
@@ -537,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -623,19 +620,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D6" s="10">
         <v>4000</v>
       </c>
       <c r="E6" s="10">
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="F6" s="10">
         <v>45</v>
       </c>
       <c r="G6" s="10">
-        <v>108000</v>
+        <v>162000</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -669,19 +666,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>825</v>
+        <v>1020</v>
       </c>
       <c r="D8" s="10">
         <v>13000</v>
       </c>
       <c r="E8" s="10">
-        <v>10725000</v>
+        <v>13260000</v>
       </c>
       <c r="F8" s="10">
         <v>55</v>
       </c>
       <c r="G8" s="10">
-        <v>5898750</v>
+        <v>7293000</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -692,19 +689,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="10">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="D9" s="10">
         <v>2900</v>
       </c>
       <c r="E9" s="10">
-        <v>174000</v>
+        <v>609000</v>
       </c>
       <c r="F9" s="10">
         <v>45</v>
       </c>
       <c r="G9" s="10">
-        <v>78300</v>
+        <v>274050</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -715,19 +712,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="10">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="D10" s="10">
         <v>6926</v>
       </c>
       <c r="E10" s="10">
-        <v>623340</v>
+        <v>1142790</v>
       </c>
       <c r="F10" s="10">
         <v>38</v>
       </c>
       <c r="G10" s="10">
-        <v>236869.2</v>
+        <v>434260.2</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -738,19 +735,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="10">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="D11" s="10">
         <v>9000</v>
       </c>
       <c r="E11" s="10">
-        <v>1818000</v>
+        <v>1269000</v>
       </c>
       <c r="F11" s="10">
         <v>55</v>
       </c>
       <c r="G11" s="10">
-        <v>999900</v>
+        <v>697950</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -761,19 +758,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="10">
-        <v>300</v>
+        <v>670</v>
       </c>
       <c r="D12" s="10">
-        <v>8900</v>
+        <v>2600</v>
       </c>
       <c r="E12" s="10">
-        <v>2670000</v>
+        <v>1742000</v>
       </c>
       <c r="F12" s="10">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12" s="10">
-        <v>1415100</v>
+        <v>871000</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -784,19 +781,19 @@
         <v>18</v>
       </c>
       <c r="C13" s="10">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="D13" s="10">
-        <v>2600</v>
+        <v>4700</v>
       </c>
       <c r="E13" s="10">
-        <v>936000</v>
+        <v>1546300</v>
       </c>
       <c r="F13" s="10">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G13" s="10">
-        <v>468000</v>
+        <v>618520</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -807,19 +804,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="10">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="D14" s="10">
-        <v>4700</v>
+        <v>9900</v>
       </c>
       <c r="E14" s="10">
-        <v>2068000</v>
+        <v>5049000</v>
       </c>
       <c r="F14" s="10">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G14" s="10">
-        <v>827200</v>
+        <v>2120580</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -830,19 +827,19 @@
         <v>20</v>
       </c>
       <c r="C15" s="10">
-        <v>585</v>
+        <v>1770</v>
       </c>
       <c r="D15" s="10">
-        <v>9900</v>
+        <v>14000</v>
       </c>
       <c r="E15" s="10">
-        <v>5791500</v>
+        <v>24780000</v>
       </c>
       <c r="F15" s="10">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G15" s="10">
-        <v>2432430</v>
+        <v>13629000</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -853,19 +850,19 @@
         <v>21</v>
       </c>
       <c r="C16" s="10">
-        <v>1470</v>
+        <v>173</v>
       </c>
       <c r="D16" s="10">
-        <v>14000</v>
+        <v>3700</v>
       </c>
       <c r="E16" s="10">
-        <v>20580000</v>
+        <v>640100</v>
       </c>
       <c r="F16" s="10">
         <v>55</v>
       </c>
       <c r="G16" s="10">
-        <v>11319000</v>
+        <v>352055</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -876,19 +873,19 @@
         <v>22</v>
       </c>
       <c r="C17" s="10">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="D17" s="10">
-        <v>3700</v>
+        <v>4500</v>
       </c>
       <c r="E17" s="10">
-        <v>499500</v>
+        <v>877500</v>
       </c>
       <c r="F17" s="10">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G17" s="10">
-        <v>274725</v>
+        <v>377325</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -899,19 +896,19 @@
         <v>23</v>
       </c>
       <c r="C18" s="10">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D18" s="10">
-        <v>4500</v>
+        <v>7900</v>
       </c>
       <c r="E18" s="10">
-        <v>270000</v>
+        <v>1185000</v>
       </c>
       <c r="F18" s="10">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G18" s="10">
-        <v>116100</v>
+        <v>651750</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -922,77 +919,54 @@
         <v>24</v>
       </c>
       <c r="C19" s="10">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="D19" s="10">
-        <v>7900</v>
+        <v>5100</v>
       </c>
       <c r="E19" s="10">
-        <v>592500</v>
+        <v>1106700</v>
       </c>
       <c r="F19" s="10">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G19" s="10">
-        <v>325875</v>
-      </c>
-    </row>
-    <row r="20" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>15</v>
-      </c>
-      <c r="B20" s="9" t="s">
+        <v>498015</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="10">
-        <v>560</v>
-      </c>
-      <c r="D20" s="10">
-        <v>5100</v>
-      </c>
-      <c r="E20" s="10">
-        <v>2856000</v>
-      </c>
-      <c r="F20" s="10">
-        <v>45</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1285200</v>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="11">
+        <v>6360</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11">
+        <v>55943390</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11">
+        <v>29286305.2</v>
+      </c>
+    </row>
+    <row r="21" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="11">
-        <v>5942</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11">
-        <v>52219840</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11">
-        <v>27092249.2</v>
-      </c>
-    </row>
-    <row r="22" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
